--- a/csv/rf/rf_pc25_init.xlsx
+++ b/csv/rf/rf_pc25_init.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Best Perf." r:id="rId3" sheetId="1"/>
-    <sheet name="Best Par." r:id="rId4" sheetId="2"/>
-    <sheet name="Perf." r:id="rId5" sheetId="3"/>
+    <sheet name="Sel. Par." r:id="rId4" sheetId="2"/>
+    <sheet name="Best Par." r:id="rId5" sheetId="3"/>
+    <sheet name="Perf." r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>x</t>
   </si>
@@ -28,39 +29,42 @@
     <t>mtry</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -223,9 +227,6 @@
     <t>64</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -254,6 +255,156 @@
   </si>
   <si>
     <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
   </si>
 </sst>
 </file>
@@ -315,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2675324675324675</v>
+        <v>0.2694805194805195</v>
       </c>
     </row>
   </sheetData>
@@ -348,7 +499,7 @@
         <v>500.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -372,6 +523,39 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
@@ -390,10 +574,10 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48636363636363633</v>
+        <v>0.49632034632034633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08069881553229975</v>
+        <v>0.10585696699371619</v>
       </c>
     </row>
     <row r="3">
@@ -407,10 +591,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.39242424242424245</v>
+        <v>0.3482683982683983</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14231700034592465</v>
+        <v>0.07788499197639354</v>
       </c>
     </row>
     <row r="4">
@@ -424,10 +608,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32337662337662343</v>
+        <v>0.31103896103896106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09097892368137156</v>
+        <v>0.076028855318181</v>
       </c>
     </row>
     <row r="5">
@@ -441,10 +625,10 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31796536796536795</v>
+        <v>0.30173160173160174</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12042558146486915</v>
+        <v>0.08847846629135345</v>
       </c>
     </row>
     <row r="6">
@@ -458,10 +642,10 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3047619047619048</v>
+        <v>0.30194805194805197</v>
       </c>
       <c r="E6" t="n">
-        <v>0.10530846181021337</v>
+        <v>0.09004751026111218</v>
       </c>
     </row>
     <row r="7">
@@ -475,10 +659,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.49047619047619045</v>
+        <v>0.491991341991342</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13379199360939803</v>
+        <v>0.11653096613623161</v>
       </c>
     </row>
     <row r="8">
@@ -492,10 +676,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.30454545454545456</v>
+        <v>0.3153679653679654</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09567464119342063</v>
+        <v>0.09953075648490804</v>
       </c>
     </row>
     <row r="9">
@@ -509,10 +693,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.282034632034632</v>
+        <v>0.2885281385281385</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12217906937221307</v>
+        <v>0.10313196022871285</v>
       </c>
     </row>
     <row r="10">
@@ -526,15 +710,15 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29545454545454547</v>
+        <v>0.3064935064935065</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09828444796497952</v>
+        <v>0.09359063073728889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>500.0</v>
@@ -543,15 +727,15 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2675324675324675</v>
+        <v>0.2883116883116883</v>
       </c>
       <c r="E11" t="n">
-        <v>0.14445230073215692</v>
+        <v>0.10439494641839125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>10.0</v>
@@ -560,15 +744,15 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4896103896103896</v>
+        <v>0.408008658008658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09230021991984999</v>
+        <v>0.09712294845632415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>50.0</v>
@@ -577,15 +761,15 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3277056277056277</v>
+        <v>0.33354978354978354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11209158674911814</v>
+        <v>0.09938106090299928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>100.0</v>
@@ -594,15 +778,15 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.28614718614718615</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1496441894372931</v>
+        <v>0.09512214726884984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>250.0</v>
@@ -611,15 +795,15 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.28225108225108225</v>
+        <v>0.279004329004329</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11943920903679428</v>
+        <v>0.08986348690602587</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>500.0</v>
@@ -628,15 +812,15 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2865800865800866</v>
+        <v>0.2787878787878788</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09768384386200801</v>
+        <v>0.09177421111130965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>10.0</v>
@@ -645,15 +829,15 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.42943722943722945</v>
+        <v>0.3935064935064935</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12442153903895929</v>
+        <v>0.04828990907972706</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>50.0</v>
@@ -662,15 +846,15 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2958874458874459</v>
+        <v>0.31082251082251083</v>
       </c>
       <c r="E18" t="n">
-        <v>0.10471483763349146</v>
+        <v>0.09527197788117167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>100.0</v>
@@ -679,15 +863,15 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30454545454545456</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09901161525202537</v>
+        <v>0.12228873211442275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>250.0</v>
@@ -696,15 +880,15 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2722943722943723</v>
+        <v>0.27900432900432903</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11980736189480834</v>
+        <v>0.11023364662582177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>500.0</v>
@@ -713,15 +897,15 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2677489177489178</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11198402448365544</v>
+        <v>0.11038465880301761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>10.0</v>
@@ -730,15 +914,15 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.36883116883116884</v>
+        <v>0.45</v>
       </c>
       <c r="E22" t="n">
-        <v>0.11794804626346857</v>
+        <v>0.07783150366339368</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>50.0</v>
@@ -747,15 +931,15 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3283549783549784</v>
+        <v>0.30173160173160174</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12590983489895533</v>
+        <v>0.12592699154509546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>100.0</v>
@@ -764,15 +948,15 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3140692640692641</v>
+        <v>0.28831168831168835</v>
       </c>
       <c r="E24" t="n">
-        <v>0.11858737392084134</v>
+        <v>0.09250866057184053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>250.0</v>
@@ -781,15 +965,15 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2963203463203463</v>
+        <v>0.291991341991342</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09639233437872517</v>
+        <v>0.10971295695759371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>500.0</v>
@@ -798,15 +982,15 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29545454545454547</v>
+        <v>0.29285714285714287</v>
       </c>
       <c r="E26" t="n">
-        <v>0.11222177783553088</v>
+        <v>0.09992224967506975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>10.0</v>
@@ -815,15 +999,15 @@
         <v>6.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.41645021645021646</v>
+        <v>0.37164502164502167</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0819607035963403</v>
+        <v>0.08178808193923491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>50.0</v>
@@ -832,15 +1016,15 @@
         <v>6.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3235930735930736</v>
+        <v>0.2831168831168831</v>
       </c>
       <c r="E28" t="n">
-        <v>0.11423090534969696</v>
+        <v>0.09775096698546537</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>100.0</v>
@@ -849,15 +1033,15 @@
         <v>6.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3158008658008658</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08205972525356325</v>
+        <v>0.09695772490171392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>250.0</v>
@@ -866,15 +1050,15 @@
         <v>6.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.28160173160173163</v>
+        <v>0.2876623376623377</v>
       </c>
       <c r="E30" t="n">
-        <v>0.10439818757994432</v>
+        <v>0.0847476233963948</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>500.0</v>
@@ -883,15 +1067,15 @@
         <v>6.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.29090909090909095</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.11614234466797613</v>
+        <v>0.08453236209262308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>10.0</v>
@@ -900,15 +1084,15 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3751082251082251</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E32" t="n">
-        <v>0.10871007263116407</v>
+        <v>0.11260590069159368</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>50.0</v>
@@ -917,15 +1101,15 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3235930735930736</v>
+        <v>0.3212121212121212</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09442705296710656</v>
+        <v>0.1370745040305473</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>100.0</v>
@@ -934,15 +1118,15 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3140692640692641</v>
+        <v>0.30194805194805197</v>
       </c>
       <c r="E34" t="n">
-        <v>0.11547821341035377</v>
+        <v>0.08399985196158506</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>250.0</v>
@@ -951,15 +1135,15 @@
         <v>7.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.30064935064935067</v>
+        <v>0.29220779220779225</v>
       </c>
       <c r="E35" t="n">
-        <v>0.10935175949260098</v>
+        <v>0.093299835767326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
         <v>500.0</v>
@@ -968,15 +1152,15 @@
         <v>7.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3</v>
+        <v>0.2876623376623377</v>
       </c>
       <c r="E36" t="n">
-        <v>0.11211944781985234</v>
+        <v>0.09849713701619606</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
         <v>10.0</v>
@@ -985,15 +1169,15 @@
         <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.383982683982684</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09588198968838048</v>
+        <v>0.07764769177394806</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
         <v>50.0</v>
@@ -1002,15 +1186,15 @@
         <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.30064935064935067</v>
+        <v>0.3251082251082251</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09452182662891932</v>
+        <v>0.11370814746390283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="n">
         <v>100.0</v>
@@ -1019,15 +1203,15 @@
         <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2911255411255411</v>
+        <v>0.31623376623376626</v>
       </c>
       <c r="E39" t="n">
-        <v>0.11073684647582789</v>
+        <v>0.1291846991476982</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="n">
         <v>250.0</v>
@@ -1036,15 +1220,15 @@
         <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.30043290043290044</v>
+        <v>0.2876623376623377</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09964967193224623</v>
+        <v>0.09000240728382511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>500.0</v>
@@ -1053,15 +1237,15 @@
         <v>8.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.304978354978355</v>
+        <v>0.2922077922077922</v>
       </c>
       <c r="E41" t="n">
-        <v>0.10704235864669011</v>
+        <v>0.09031160304945947</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="n">
         <v>10.0</v>
@@ -1070,15 +1254,15 @@
         <v>9.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.38701298701298703</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="E42" t="n">
-        <v>0.12719630050784317</v>
+        <v>0.09849079473985674</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
         <v>50.0</v>
@@ -1087,15 +1271,15 @@
         <v>9.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3145021645021645</v>
+        <v>0.3199134199134199</v>
       </c>
       <c r="E43" t="n">
-        <v>0.10893968040810964</v>
+        <v>0.10070454712872445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="n">
         <v>100.0</v>
@@ -1104,15 +1288,15 @@
         <v>9.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2958874458874459</v>
+        <v>0.3062770562770563</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08961753462253909</v>
+        <v>0.07684744794838413</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="n">
         <v>250.0</v>
@@ -1121,15 +1305,15 @@
         <v>9.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.27705627705627706</v>
+        <v>0.27424242424242423</v>
       </c>
       <c r="E45" t="n">
-        <v>0.12041066723693158</v>
+        <v>0.11318619461286561</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>500.0</v>
@@ -1138,15 +1322,15 @@
         <v>9.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.30974025974025976</v>
+        <v>0.3067099567099567</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1045576282277353</v>
+        <v>0.09836280488679698</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="n">
         <v>10.0</v>
@@ -1155,15 +1339,15 @@
         <v>10.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3835497835497836</v>
+        <v>0.3471861471861472</v>
       </c>
       <c r="E47" t="n">
-        <v>0.12733537280221124</v>
+        <v>0.04923363594941363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -1172,15 +1356,15 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.31406926406926405</v>
+        <v>0.3203463203463204</v>
       </c>
       <c r="E48" t="n">
-        <v>0.11327538349808039</v>
+        <v>0.09334446082584666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="n">
         <v>100.0</v>
@@ -1189,15 +1373,15 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3233766233766234</v>
+        <v>0.3194805194805195</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09734218638592942</v>
+        <v>0.10492416645392233</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="n">
         <v>250.0</v>
@@ -1206,15 +1390,15 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3047619047619048</v>
+        <v>0.2876623376623377</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11039574061768374</v>
+        <v>0.0847476233963948</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="n">
         <v>500.0</v>
@@ -1223,15 +1407,15 @@
         <v>10.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2956709956709957</v>
+        <v>0.2876623376623377</v>
       </c>
       <c r="E51" t="n">
-        <v>0.11687955386228407</v>
+        <v>0.08199404154305345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
         <v>10.0</v>
@@ -1240,15 +1424,15 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38376623376623376</v>
+        <v>0.37077922077922076</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08805886009336554</v>
+        <v>0.08810613970434152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="n">
         <v>50.0</v>
@@ -1257,15 +1441,15 @@
         <v>11.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3417748917748918</v>
+        <v>0.2974025974025974</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09949099921315972</v>
+        <v>0.12627375749738234</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
         <v>100.0</v>
@@ -1274,15 +1458,15 @@
         <v>11.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3235930735930736</v>
+        <v>0.3251082251082251</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09705860908679236</v>
+        <v>0.08153149699572158</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="n">
         <v>250.0</v>
@@ -1291,15 +1475,15 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.304978354978355</v>
+        <v>0.3067099567099567</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09882953493298034</v>
+        <v>0.07231618683933445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="n">
         <v>500.0</v>
@@ -1308,15 +1492,15 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30952380952380953</v>
+        <v>0.3060606060606061</v>
       </c>
       <c r="E56" t="n">
-        <v>0.12044957004358023</v>
+        <v>0.09124745203887438</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="n">
         <v>10.0</v>
@@ -1325,15 +1509,15 @@
         <v>12.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3880952380952381</v>
+        <v>0.37597402597402596</v>
       </c>
       <c r="E57" t="n">
-        <v>0.12297323149182184</v>
+        <v>0.07931291739872162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
         <v>50.0</v>
@@ -1342,15 +1526,15 @@
         <v>12.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.32965367965367964</v>
       </c>
       <c r="E58" t="n">
-        <v>0.10375471379735238</v>
+        <v>0.1102175894222283</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="n">
         <v>100.0</v>
@@ -1359,15 +1543,15 @@
         <v>12.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.33744588744588744</v>
+        <v>0.34740259740259744</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07668605768666172</v>
+        <v>0.09019769063209797</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
         <v>250.0</v>
@@ -1376,15 +1560,15 @@
         <v>12.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.30627705627705626</v>
       </c>
       <c r="E60" t="n">
-        <v>0.11534899000800002</v>
+        <v>0.0942559993210137</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
         <v>500.0</v>
@@ -1393,15 +1577,15 @@
         <v>12.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.30043290043290044</v>
+        <v>0.28290043290043293</v>
       </c>
       <c r="E61" t="n">
-        <v>0.10888590952630525</v>
+        <v>0.09161098971118849</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="n">
         <v>10.0</v>
@@ -1410,15 +1594,15 @@
         <v>13.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3878787878787879</v>
+        <v>0.3852813852813853</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09854125738668601</v>
+        <v>0.12465895622335041</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="n">
         <v>50.0</v>
@@ -1427,15 +1611,15 @@
         <v>13.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3183982683982684</v>
+        <v>0.3155844155844156</v>
       </c>
       <c r="E63" t="n">
-        <v>0.12510685200243102</v>
+        <v>0.07841355348066169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="n">
         <v>100.0</v>
@@ -1444,15 +1628,15 @@
         <v>13.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3235930735930736</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1056758439894465</v>
+        <v>0.10786013495138409</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="n">
         <v>250.0</v>
@@ -1461,15 +1645,15 @@
         <v>13.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.30974025974025976</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1045576282277353</v>
+        <v>0.11023152154200055</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B66" t="n">
         <v>500.0</v>
@@ -1478,10 +1662,10 @@
         <v>13.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31861471861471863</v>
+        <v>0.2694805194805195</v>
       </c>
       <c r="E66" t="n">
-        <v>0.11475627178324789</v>
+        <v>0.08875485340512444</v>
       </c>
     </row>
     <row r="67">
@@ -1495,10 +1679,10 @@
         <v>14.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3887445887445888</v>
+        <v>0.4127705627705628</v>
       </c>
       <c r="E67" t="n">
-        <v>0.08527271706569035</v>
+        <v>0.06751373366529885</v>
       </c>
     </row>
     <row r="68">
@@ -1512,10 +1696,10 @@
         <v>14.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.31861471861471863</v>
+        <v>0.3255411255411255</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08834657753318867</v>
+        <v>0.1154680702083357</v>
       </c>
     </row>
     <row r="69">
@@ -1529,10 +1713,10 @@
         <v>14.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.34285714285714286</v>
+        <v>0.3064935064935065</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0951407522117437</v>
+        <v>0.0920822627392363</v>
       </c>
     </row>
     <row r="70">
@@ -1546,10 +1730,10 @@
         <v>14.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.30952380952380953</v>
+        <v>0.3155844155844156</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1027929651448814</v>
+        <v>0.10314584004562664</v>
       </c>
     </row>
     <row r="71">
@@ -1563,10 +1747,10 @@
         <v>14.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30974025974025976</v>
+        <v>0.3153679653679654</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0917211605441142</v>
+        <v>0.10574872423012568</v>
       </c>
     </row>
     <row r="72">
@@ -1580,10 +1764,10 @@
         <v>15.0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3564935064935065</v>
+        <v>0.37532467532467534</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08000561407810809</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="73">
@@ -1597,10 +1781,10 @@
         <v>15.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3203463203463204</v>
       </c>
       <c r="E73" t="n">
-        <v>0.10615529144126794</v>
+        <v>0.09334446082584666</v>
       </c>
     </row>
     <row r="74">
@@ -1614,10 +1798,10 @@
         <v>15.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3235930735930736</v>
+        <v>0.32012987012987015</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08605087178304857</v>
+        <v>0.11825768795208424</v>
       </c>
     </row>
     <row r="75">
@@ -1631,10 +1815,10 @@
         <v>15.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3281385281385282</v>
+        <v>0.3196969696969697</v>
       </c>
       <c r="E75" t="n">
-        <v>0.11062373196158186</v>
+        <v>0.08540600032543082</v>
       </c>
     </row>
     <row r="76">
@@ -1648,10 +1832,860 @@
         <v>15.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.33311688311688314</v>
+        <v>0.31082251082251083</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0945108113186157</v>
+        <v>0.07951055799547219</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.38484848484848483</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.096572271892599</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.32965367965367964</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.07570636625560001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3430735930735931</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.08831976356330712</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3060606060606061</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.07649404955663794</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.30194805194805197</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.08746094717902335</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3569264069264069</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.08693679524534002</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3155844155844156</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.08564794027431138</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3757575757575758</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.08770434091306505</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.31536796536796535</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.10748205716769045</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3151515151515152</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.08695326023578052</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.37186147186147184</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.11613158709488801</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.32012987012987015</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.06741651161616517</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3341991341991342</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.08928669814491383</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.08657527644165793</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.33376623376623377</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.09289612486520309</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.38484848484848483</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.09320940458761401</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.09626561020751985</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.32965367965367964</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.07570636625560001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3432900432900433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.08092523974436101</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.31082251082251083</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.08850787891584244</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.3751082251082251</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0887478149086862</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.3521645021645022</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.08159053513275415</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.3248917748917749</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.09503810608381873</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.34761904761904766</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.08857255230931421</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.33376623376623377</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.09039111235181375</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.42164502164502166</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1279227086741147</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.3251082251082251</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.11000366375807662</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.3341991341991342</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.10088737132769994</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.3521645021645022</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.08186442369116166</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.33376623376623377</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.09039111235181375</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.37987012987012986</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.09882321398927724</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.08302589416014323</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.33354978354978354</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1111366418073668</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.34350649350649354</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.08142448115960357</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3341991341991342</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.08345240520201262</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.39891774891774895</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.12813515621579075</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3616883116883117</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.08189239783550083</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3521645021645022</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.08213739896857504</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.333982683982684</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.07264656015094675</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.333982683982684</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.06941459413546937</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.34805194805194806</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.09492493004514502</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.370995670995671</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1133936573011479</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.3471861471861472</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.08342121013920646</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.33354978354978354</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.04952092091395075</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.33852813852813857</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.08567467904926124</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.39935064935064934</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1202300368029306</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.37987012987012986</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.09406250037939724</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.34783549783549783</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.07686641276012503</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0787870859259537</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.33441558441558444</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.09521212860405338</v>
       </c>
     </row>
   </sheetData>

--- a/csv/rf/rf_pc25_init.xlsx
+++ b/csv/rf/rf_pc25_init.xlsx
@@ -29,202 +29,202 @@
     <t>mtry</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>65</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
   </si>
   <si>
     <t>66</t>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2694805194805195</v>
+        <v>0.2502164502164502</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +499,7 @@
         <v>500.0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -532,7 +532,7 @@
         <v>500.0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +574,10 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49632034632034633</v>
+        <v>0.4961038961038961</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10585696699371619</v>
+        <v>0.08128210790607934</v>
       </c>
     </row>
     <row r="3">
@@ -591,10 +591,10 @@
         <v>1.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3482683982683983</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07788499197639354</v>
+        <v>0.07226397934836</v>
       </c>
     </row>
     <row r="4">
@@ -608,10 +608,10 @@
         <v>1.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31103896103896106</v>
+        <v>0.35259740259740263</v>
       </c>
       <c r="E4" t="n">
-        <v>0.076028855318181</v>
+        <v>0.08053350847821354</v>
       </c>
     </row>
     <row r="5">
@@ -625,10 +625,10 @@
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.3207792207792208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08847846629135345</v>
+        <v>0.11231706269232887</v>
       </c>
     </row>
     <row r="6">
@@ -642,10 +642,10 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.30194805194805197</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09004751026111218</v>
+        <v>0.11188729287387864</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.491991341991342</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.11653096613623161</v>
+        <v>0.08815457498947751</v>
       </c>
     </row>
     <row r="8">
@@ -676,10 +676,10 @@
         <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3153679653679654</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09953075648490804</v>
+        <v>0.08887647258721995</v>
       </c>
     </row>
     <row r="9">
@@ -693,10 +693,10 @@
         <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2885281385281385</v>
+        <v>0.28744588744588745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.10313196022871285</v>
+        <v>0.07555321849644756</v>
       </c>
     </row>
     <row r="10">
@@ -710,10 +710,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3064935064935065</v>
+        <v>0.28290043290043293</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09359063073728889</v>
+        <v>0.09414437131895585</v>
       </c>
     </row>
     <row r="11">
@@ -727,10 +727,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2883116883116883</v>
+        <v>0.25497835497835497</v>
       </c>
       <c r="E11" t="n">
-        <v>0.10439494641839125</v>
+        <v>0.08794498936400286</v>
       </c>
     </row>
     <row r="12">
@@ -744,10 +744,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.408008658008658</v>
+        <v>0.40346320346320347</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09712294845632415</v>
+        <v>0.12004349732604463</v>
       </c>
     </row>
     <row r="13">
@@ -761,10 +761,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.33354978354978354</v>
+        <v>0.25476190476190474</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09938106090299928</v>
+        <v>0.10601421372505099</v>
       </c>
     </row>
     <row r="14">
@@ -778,10 +778,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3012987012987013</v>
+        <v>0.29653679653679654</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09512214726884984</v>
+        <v>0.08432612025216153</v>
       </c>
     </row>
     <row r="15">
@@ -795,10 +795,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.279004329004329</v>
+        <v>0.28225108225108225</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08986348690602587</v>
+        <v>0.06873747635443556</v>
       </c>
     </row>
     <row r="16">
@@ -812,10 +812,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2787878787878788</v>
+        <v>0.27316017316017316</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09177421111130965</v>
+        <v>0.09605339945364696</v>
       </c>
     </row>
     <row r="17">
@@ -829,10 +829,10 @@
         <v>4.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3935064935064935</v>
+        <v>0.33766233766233766</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04828990907972706</v>
+        <v>0.054643856360062006</v>
       </c>
     </row>
     <row r="18">
@@ -846,10 +846,10 @@
         <v>4.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31082251082251083</v>
+        <v>0.30584415584415586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09527197788117167</v>
+        <v>0.11182586210604131</v>
       </c>
     </row>
     <row r="19">
@@ -863,10 +863,10 @@
         <v>4.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.296969696969697</v>
+        <v>0.3103896103896104</v>
       </c>
       <c r="E19" t="n">
-        <v>0.12228873211442275</v>
+        <v>0.07092906224361571</v>
       </c>
     </row>
     <row r="20">
@@ -880,10 +880,10 @@
         <v>4.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27900432900432903</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11023364662582177</v>
+        <v>0.09774564143741286</v>
       </c>
     </row>
     <row r="21">
@@ -897,10 +897,10 @@
         <v>4.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.25952380952380955</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11038465880301761</v>
+        <v>0.07385750247186057</v>
       </c>
     </row>
     <row r="22">
@@ -914,10 +914,10 @@
         <v>5.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.45</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07783150366339368</v>
+        <v>0.10190389961477984</v>
       </c>
     </row>
     <row r="23">
@@ -931,10 +931,10 @@
         <v>5.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2872294372294372</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12592699154509546</v>
+        <v>0.062074644882143495</v>
       </c>
     </row>
     <row r="24">
@@ -948,10 +948,10 @@
         <v>5.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.28831168831168835</v>
+        <v>0.2688311688311688</v>
       </c>
       <c r="E24" t="n">
-        <v>0.09250866057184053</v>
+        <v>0.0730235724199996</v>
       </c>
     </row>
     <row r="25">
@@ -965,15 +965,15 @@
         <v>5.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.291991341991342</v>
+        <v>0.2826839826839827</v>
       </c>
       <c r="E25" t="n">
-        <v>0.10971295695759371</v>
+        <v>0.06698076341936432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B26" t="n">
         <v>500.0</v>
@@ -982,15 +982,15 @@
         <v>5.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29285714285714287</v>
+        <v>0.2502164502164502</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09992224967506975</v>
+        <v>0.058429977652923716</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>10.0</v>
@@ -999,15 +999,15 @@
         <v>6.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.37164502164502167</v>
+        <v>0.3984848484848485</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08178808193923491</v>
+        <v>0.13044385857796625</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>50.0</v>
@@ -1016,15 +1016,15 @@
         <v>6.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2831168831168831</v>
+        <v>0.2785714285714286</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09775096698546537</v>
+        <v>0.09370652939386628</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="n">
         <v>100.0</v>
@@ -1033,15 +1033,15 @@
         <v>6.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3158008658008658</v>
+        <v>0.30584415584415586</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09695772490171392</v>
+        <v>0.07679865978509906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>250.0</v>
@@ -1050,15 +1050,15 @@
         <v>6.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2876623376623377</v>
+        <v>0.2872294372294372</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0847476233963948</v>
+        <v>0.10000556987209766</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
         <v>500.0</v>
@@ -1067,15 +1067,15 @@
         <v>6.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2640692640692641</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08453236209262308</v>
+        <v>0.06951164268115168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
         <v>10.0</v>
@@ -1084,15 +1084,15 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.37142857142857144</v>
+        <v>0.40735930735930737</v>
       </c>
       <c r="E32" t="n">
-        <v>0.11260590069159368</v>
+        <v>0.08661495209484531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>50.0</v>
@@ -1101,15 +1101,15 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3212121212121212</v>
+        <v>0.31926406926406925</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1370745040305473</v>
+        <v>0.08161732754075354</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
         <v>100.0</v>
@@ -1118,15 +1118,15 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.30194805194805197</v>
+        <v>0.2735930735930736</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08399985196158506</v>
+        <v>0.07172457506478651</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
         <v>250.0</v>
@@ -1135,15 +1135,15 @@
         <v>7.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.29220779220779225</v>
+        <v>0.27770562770562773</v>
       </c>
       <c r="E35" t="n">
-        <v>0.093299835767326</v>
+        <v>0.07768824141171349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
         <v>500.0</v>
@@ -1152,15 +1152,15 @@
         <v>7.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2876623376623377</v>
+        <v>0.26861471861471864</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09849713701619606</v>
+        <v>0.07473333589612073</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
         <v>10.0</v>
@@ -1169,15 +1169,15 @@
         <v>8.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.38961038961038963</v>
+        <v>0.40714285714285714</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07764769177394806</v>
+        <v>0.09449979472431923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
         <v>50.0</v>
@@ -1186,15 +1186,15 @@
         <v>8.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.3062770562770563</v>
       </c>
       <c r="E38" t="n">
-        <v>0.11370814746390283</v>
+        <v>0.09695128192147712</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="n">
         <v>100.0</v>
@@ -1203,15 +1203,15 @@
         <v>8.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.31623376623376626</v>
+        <v>0.28744588744588745</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1291846991476982</v>
+        <v>0.06258202599082295</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
         <v>250.0</v>
@@ -1220,15 +1220,15 @@
         <v>8.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2876623376623377</v>
+        <v>0.29653679653679654</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09000240728382511</v>
+        <v>0.06313852772628911</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>500.0</v>
@@ -1237,15 +1237,15 @@
         <v>8.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2922077922077922</v>
+        <v>0.2963203463203463</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09031160304945947</v>
+        <v>0.09427919250634466</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="n">
         <v>10.0</v>
@@ -1254,15 +1254,15 @@
         <v>9.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.35259740259740263</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09849079473985674</v>
+        <v>0.12553055137833138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="n">
         <v>50.0</v>
@@ -1274,12 +1274,12 @@
         <v>0.3199134199134199</v>
       </c>
       <c r="E43" t="n">
-        <v>0.10070454712872445</v>
+        <v>0.0653729026036669</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="n">
         <v>100.0</v>
@@ -1288,15 +1288,15 @@
         <v>9.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3062770562770563</v>
+        <v>0.3008658008658009</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07684744794838413</v>
+        <v>0.07782849385374778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="n">
         <v>250.0</v>
@@ -1305,15 +1305,15 @@
         <v>9.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.27424242424242423</v>
+        <v>0.27770562770562773</v>
       </c>
       <c r="E45" t="n">
-        <v>0.11318619461286561</v>
+        <v>0.05183820758014155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="n">
         <v>500.0</v>
@@ -1322,15 +1322,15 @@
         <v>9.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3067099567099567</v>
+        <v>0.28225108225108225</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09836280488679698</v>
+        <v>0.06873747635443557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="n">
         <v>10.0</v>
@@ -1339,15 +1339,15 @@
         <v>10.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3471861471861472</v>
+        <v>0.37012987012987014</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04923363594941363</v>
+        <v>0.05939138709164987</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -1356,15 +1356,15 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3203463203463204</v>
+        <v>0.3248917748917749</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09334446082584666</v>
+        <v>0.0583073477189213</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="n">
         <v>100.0</v>
@@ -1373,15 +1373,15 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3194805194805195</v>
+        <v>0.29199134199134197</v>
       </c>
       <c r="E49" t="n">
-        <v>0.10492416645392233</v>
+        <v>0.06624814752998542</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
         <v>250.0</v>
@@ -1390,15 +1390,15 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2876623376623377</v>
+        <v>0.28354978354978355</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0847476233963948</v>
+        <v>0.12856082021071763</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="n">
         <v>500.0</v>
@@ -1407,15 +1407,15 @@
         <v>10.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2876623376623377</v>
+        <v>0.27835497835497836</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08199404154305345</v>
+        <v>0.07690128225529477</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="n">
         <v>10.0</v>
@@ -1424,15 +1424,15 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.37077922077922076</v>
+        <v>0.40714285714285714</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08810613970434152</v>
+        <v>0.12333843277846442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n">
         <v>50.0</v>
@@ -1441,15 +1441,15 @@
         <v>11.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2974025974025974</v>
+        <v>0.3194805194805195</v>
       </c>
       <c r="E53" t="n">
-        <v>0.12627375749738234</v>
+        <v>0.0465040658077776</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" t="n">
         <v>100.0</v>
@@ -1458,15 +1458,15 @@
         <v>11.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.3151515151515151</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08153149699572158</v>
+        <v>0.07813689591763232</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" t="n">
         <v>250.0</v>
@@ -1475,15 +1475,15 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3067099567099567</v>
+        <v>0.27316017316017316</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07231618683933445</v>
+        <v>0.07932440253676913</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n">
         <v>500.0</v>
@@ -1492,15 +1492,15 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3060606060606061</v>
+        <v>0.28225108225108225</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09124745203887438</v>
+        <v>0.0754180531713714</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" t="n">
         <v>10.0</v>
@@ -1509,15 +1509,15 @@
         <v>12.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.37597402597402596</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07931291739872162</v>
+        <v>0.10577431887999508</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n">
         <v>50.0</v>
@@ -1526,15 +1526,15 @@
         <v>12.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.2974025974025974</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1102175894222283</v>
+        <v>0.11248564165895354</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" t="n">
         <v>100.0</v>
@@ -1543,15 +1543,15 @@
         <v>12.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.34740259740259744</v>
+        <v>0.3341991341991342</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09019769063209797</v>
+        <v>0.07512066494063376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" t="n">
         <v>250.0</v>
@@ -1560,15 +1560,15 @@
         <v>12.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0942559993210137</v>
+        <v>0.08537673854155287</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" t="n">
         <v>500.0</v>
@@ -1577,15 +1577,15 @@
         <v>12.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.28290043290043293</v>
+        <v>0.29675324675324677</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09161098971118849</v>
+        <v>0.06499476172091778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" t="n">
         <v>10.0</v>
@@ -1594,15 +1594,15 @@
         <v>13.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3852813852813853</v>
+        <v>0.36623376623376624</v>
       </c>
       <c r="E62" t="n">
-        <v>0.12465895622335041</v>
+        <v>0.07905488377034682</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="n">
         <v>50.0</v>
@@ -1611,15 +1611,15 @@
         <v>13.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3155844155844156</v>
+        <v>0.30584415584415586</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07841355348066169</v>
+        <v>0.08659842278177562</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="n">
         <v>100.0</v>
@@ -1628,15 +1628,15 @@
         <v>13.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3106060606060606</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="E64" t="n">
-        <v>0.10786013495138409</v>
+        <v>0.0736976875776498</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="n">
         <v>250.0</v>
@@ -1645,15 +1645,15 @@
         <v>13.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3203463203463203</v>
+        <v>0.3103896103896104</v>
       </c>
       <c r="E65" t="n">
-        <v>0.11023152154200055</v>
+        <v>0.0872162773526276</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B66" t="n">
         <v>500.0</v>
@@ -1662,10 +1662,10 @@
         <v>13.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2694805194805195</v>
+        <v>0.2963203463203463</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08875485340512444</v>
+        <v>0.07888778162100235</v>
       </c>
     </row>
     <row r="67">
@@ -1679,10 +1679,10 @@
         <v>14.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4127705627705628</v>
+        <v>0.3937229437229437</v>
       </c>
       <c r="E67" t="n">
-        <v>0.06751373366529885</v>
+        <v>0.0901237869550033</v>
       </c>
     </row>
     <row r="68">
@@ -1696,10 +1696,10 @@
         <v>14.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3255411255411255</v>
+        <v>0.333982683982684</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1154680702083357</v>
+        <v>0.08047272455892938</v>
       </c>
     </row>
     <row r="69">
@@ -1713,10 +1713,10 @@
         <v>14.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3064935064935065</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0920822627392363</v>
+        <v>0.0729269145363316</v>
       </c>
     </row>
     <row r="70">
@@ -1730,10 +1730,10 @@
         <v>14.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3155844155844156</v>
+        <v>0.3008658008658009</v>
       </c>
       <c r="E70" t="n">
-        <v>0.10314584004562664</v>
+        <v>0.09009807967886888</v>
       </c>
     </row>
     <row r="71">
@@ -1747,10 +1747,10 @@
         <v>14.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3153679653679654</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="E71" t="n">
-        <v>0.10574872423012568</v>
+        <v>0.0764572922227123</v>
       </c>
     </row>
     <row r="72">
@@ -1764,10 +1764,10 @@
         <v>15.0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.37532467532467534</v>
+        <v>0.35173160173160173</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1083414478102766</v>
+        <v>0.09162917134257346</v>
       </c>
     </row>
     <row r="73">
@@ -1781,10 +1781,10 @@
         <v>15.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3203463203463204</v>
+        <v>0.33441558441558444</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09334446082584666</v>
+        <v>0.12114446163598028</v>
       </c>
     </row>
     <row r="74">
@@ -1798,10 +1798,10 @@
         <v>15.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.32012987012987015</v>
+        <v>0.28744588744588745</v>
       </c>
       <c r="E74" t="n">
-        <v>0.11825768795208424</v>
+        <v>0.06186253382332766</v>
       </c>
     </row>
     <row r="75">
@@ -1815,10 +1815,10 @@
         <v>15.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3196969696969697</v>
+        <v>0.3054112554112554</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08540600032543082</v>
+        <v>0.08189875426299348</v>
       </c>
     </row>
     <row r="76">
@@ -1832,10 +1832,10 @@
         <v>15.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.31082251082251083</v>
+        <v>0.3010822510822511</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07951055799547219</v>
+        <v>0.06979153715700381</v>
       </c>
     </row>
     <row r="77">
@@ -1849,10 +1849,10 @@
         <v>16.0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.38484848484848483</v>
+        <v>0.3699134199134199</v>
       </c>
       <c r="E77" t="n">
-        <v>0.096572271892599</v>
+        <v>0.11543312569026574</v>
       </c>
     </row>
     <row r="78">
@@ -1866,10 +1866,10 @@
         <v>16.0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.29653679653679654</v>
       </c>
       <c r="E78" t="n">
-        <v>0.07570636625560001</v>
+        <v>0.07689315873736628</v>
       </c>
     </row>
     <row r="79">
@@ -1883,10 +1883,10 @@
         <v>16.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3430735930735931</v>
+        <v>0.31536796536796535</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08831976356330712</v>
+        <v>0.10690902523310614</v>
       </c>
     </row>
     <row r="80">
@@ -1900,10 +1900,10 @@
         <v>16.0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3060606060606061</v>
+        <v>0.29653679653679654</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07649404955663794</v>
+        <v>0.08751895946381487</v>
       </c>
     </row>
     <row r="81">
@@ -1917,10 +1917,10 @@
         <v>16.0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30194805194805197</v>
+        <v>0.2833333333333334</v>
       </c>
       <c r="E81" t="n">
-        <v>0.08746094717902335</v>
+        <v>0.08265797686672743</v>
       </c>
     </row>
     <row r="82">
@@ -1934,10 +1934,10 @@
         <v>17.0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3569264069264069</v>
+        <v>0.3521645021645022</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08693679524534002</v>
+        <v>0.10251431011123298</v>
       </c>
     </row>
     <row r="83">
@@ -1951,10 +1951,10 @@
         <v>17.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3155844155844156</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="E83" t="n">
-        <v>0.08564794027431138</v>
+        <v>0.08812947465860012</v>
       </c>
     </row>
     <row r="84">
@@ -1968,10 +1968,10 @@
         <v>17.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3757575757575758</v>
+        <v>0.30173160173160174</v>
       </c>
       <c r="E84" t="n">
-        <v>0.08770434091306505</v>
+        <v>0.08149573420432965</v>
       </c>
     </row>
     <row r="85">
@@ -1985,10 +1985,10 @@
         <v>17.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.31536796536796535</v>
+        <v>0.28225108225108225</v>
       </c>
       <c r="E85" t="n">
-        <v>0.10748205716769045</v>
+        <v>0.0786879152727395</v>
       </c>
     </row>
     <row r="86">
@@ -2002,10 +2002,10 @@
         <v>17.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3151515151515152</v>
+        <v>0.2826839826839827</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08695326023578052</v>
+        <v>0.06797593689940122</v>
       </c>
     </row>
     <row r="87">
@@ -2019,10 +2019,10 @@
         <v>18.0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.37186147186147184</v>
+        <v>0.3854978354978355</v>
       </c>
       <c r="E87" t="n">
-        <v>0.11613158709488801</v>
+        <v>0.11398090191038149</v>
       </c>
     </row>
     <row r="88">
@@ -2036,10 +2036,10 @@
         <v>18.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.32012987012987015</v>
+        <v>0.3012987012987013</v>
       </c>
       <c r="E88" t="n">
-        <v>0.06741651161616517</v>
+        <v>0.08305598418347783</v>
       </c>
     </row>
     <row r="89">
@@ -2053,10 +2053,10 @@
         <v>18.0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3341991341991342</v>
+        <v>0.3103896103896104</v>
       </c>
       <c r="E89" t="n">
-        <v>0.08928669814491383</v>
+        <v>0.07835643994501806</v>
       </c>
     </row>
     <row r="90">
@@ -2070,10 +2070,10 @@
         <v>18.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.34285714285714286</v>
+        <v>0.3151515151515152</v>
       </c>
       <c r="E90" t="n">
-        <v>0.08657527644165793</v>
+        <v>0.06172268942436784</v>
       </c>
     </row>
     <row r="91">
@@ -2087,10 +2087,10 @@
         <v>18.0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.33376623376623377</v>
+        <v>0.2917748917748918</v>
       </c>
       <c r="E91" t="n">
-        <v>0.09289612486520309</v>
+        <v>0.0966099973324388</v>
       </c>
     </row>
     <row r="92">
@@ -2104,10 +2104,10 @@
         <v>19.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.38484848484848483</v>
+        <v>0.4311688311688312</v>
       </c>
       <c r="E92" t="n">
-        <v>0.09320940458761401</v>
+        <v>0.08428783762780986</v>
       </c>
     </row>
     <row r="93">
@@ -2121,10 +2121,10 @@
         <v>19.0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.3383116883116883</v>
       </c>
       <c r="E93" t="n">
-        <v>0.09626561020751985</v>
+        <v>0.08866565783275335</v>
       </c>
     </row>
     <row r="94">
@@ -2138,10 +2138,10 @@
         <v>19.0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.32965367965367964</v>
+        <v>0.2787878787878788</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07570636625560001</v>
+        <v>0.07595178843807807</v>
       </c>
     </row>
     <row r="95">
@@ -2155,10 +2155,10 @@
         <v>19.0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3432900432900433</v>
+        <v>0.3112554112554113</v>
       </c>
       <c r="E95" t="n">
-        <v>0.08092523974436101</v>
+        <v>0.08015999650912951</v>
       </c>
     </row>
     <row r="96">
@@ -2172,10 +2172,10 @@
         <v>19.0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.31082251082251083</v>
+        <v>0.30584415584415586</v>
       </c>
       <c r="E96" t="n">
-        <v>0.08850787891584244</v>
+        <v>0.08555824364807749</v>
       </c>
     </row>
     <row r="97">
@@ -2189,10 +2189,10 @@
         <v>20.0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3751082251082251</v>
+        <v>0.3757575757575758</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0887478149086862</v>
+        <v>0.08345240520201262</v>
       </c>
     </row>
     <row r="98">
@@ -2206,10 +2206,10 @@
         <v>20.0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3521645021645022</v>
+        <v>0.3054112554112554</v>
       </c>
       <c r="E98" t="n">
-        <v>0.08159053513275415</v>
+        <v>0.10346657443676363</v>
       </c>
     </row>
     <row r="99">
@@ -2223,10 +2223,10 @@
         <v>20.0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3248917748917749</v>
+        <v>0.31103896103896106</v>
       </c>
       <c r="E99" t="n">
-        <v>0.09503810608381873</v>
+        <v>0.08986696253272855</v>
       </c>
     </row>
     <row r="100">
@@ -2240,10 +2240,10 @@
         <v>20.0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.34761904761904766</v>
+        <v>0.3155844155844156</v>
       </c>
       <c r="E100" t="n">
-        <v>0.08857255230931421</v>
+        <v>0.08353096509042192</v>
       </c>
     </row>
     <row r="101">
@@ -2257,10 +2257,10 @@
         <v>20.0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.33376623376623377</v>
+        <v>0.29653679653679654</v>
       </c>
       <c r="E101" t="n">
-        <v>0.09039111235181375</v>
+        <v>0.1070839305261293</v>
       </c>
     </row>
     <row r="102">
@@ -2274,10 +2274,10 @@
         <v>21.0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42164502164502166</v>
+        <v>0.3803030303030303</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1279227086741147</v>
+        <v>0.09620096800951762</v>
       </c>
     </row>
     <row r="103">
@@ -2291,10 +2291,10 @@
         <v>21.0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3251082251082251</v>
+        <v>0.3203463203463203</v>
       </c>
       <c r="E103" t="n">
-        <v>0.11000366375807662</v>
+        <v>0.10183644674581592</v>
       </c>
     </row>
     <row r="104">
@@ -2308,10 +2308,10 @@
         <v>21.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3341991341991342</v>
+        <v>0.30584415584415586</v>
       </c>
       <c r="E104" t="n">
-        <v>0.10088737132769994</v>
+        <v>0.08201689401739183</v>
       </c>
     </row>
     <row r="105">
@@ -2325,10 +2325,10 @@
         <v>21.0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3521645021645022</v>
+        <v>0.31493506493506496</v>
       </c>
       <c r="E105" t="n">
-        <v>0.08186442369116166</v>
+        <v>0.09457578310420461</v>
       </c>
     </row>
     <row r="106">
@@ -2342,10 +2342,10 @@
         <v>21.0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.33376623376623377</v>
+        <v>0.31493506493506496</v>
       </c>
       <c r="E106" t="n">
-        <v>0.09039111235181375</v>
+        <v>0.06426016111758114</v>
       </c>
     </row>
     <row r="107">
@@ -2359,10 +2359,10 @@
         <v>22.0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.37987012987012986</v>
+        <v>0.30108225108225106</v>
       </c>
       <c r="E107" t="n">
-        <v>0.09882321398927724</v>
+        <v>0.10226722361384705</v>
       </c>
     </row>
     <row r="108">
@@ -2376,10 +2376,10 @@
         <v>22.0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.35714285714285715</v>
+        <v>0.31493506493506496</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08302589416014323</v>
+        <v>0.05627011834245837</v>
       </c>
     </row>
     <row r="109">
@@ -2393,10 +2393,10 @@
         <v>22.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.33354978354978354</v>
+        <v>0.28744588744588745</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1111366418073668</v>
+        <v>0.07555321849644753</v>
       </c>
     </row>
     <row r="110">
@@ -2410,10 +2410,10 @@
         <v>22.0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.34350649350649354</v>
+        <v>0.296969696969697</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08142448115960357</v>
+        <v>0.108046027883845</v>
       </c>
     </row>
     <row r="111">
@@ -2427,10 +2427,10 @@
         <v>22.0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3341991341991342</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E111" t="n">
-        <v>0.08345240520201262</v>
+        <v>0.08802456649575656</v>
       </c>
     </row>
     <row r="112">
@@ -2444,10 +2444,10 @@
         <v>23.0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.39891774891774895</v>
+        <v>0.3569264069264069</v>
       </c>
       <c r="E112" t="n">
-        <v>0.12813515621579075</v>
+        <v>0.08037822435110419</v>
       </c>
     </row>
     <row r="113">
@@ -2461,10 +2461,10 @@
         <v>23.0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3616883116883117</v>
+        <v>0.3151515151515152</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08189239783550083</v>
+        <v>0.07573489662595043</v>
       </c>
     </row>
     <row r="114">
@@ -2478,10 +2478,10 @@
         <v>23.0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3521645021645022</v>
+        <v>0.3103896103896104</v>
       </c>
       <c r="E114" t="n">
-        <v>0.08213739896857504</v>
+        <v>0.0845431381750008</v>
       </c>
     </row>
     <row r="115">
@@ -2495,10 +2495,10 @@
         <v>23.0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.333982683982684</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E115" t="n">
-        <v>0.07264656015094675</v>
+        <v>0.07630360495808465</v>
       </c>
     </row>
     <row r="116">
@@ -2512,10 +2512,10 @@
         <v>23.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.333982683982684</v>
+        <v>0.3145021645021645</v>
       </c>
       <c r="E116" t="n">
-        <v>0.06941459413546937</v>
+        <v>0.06240918682801679</v>
       </c>
     </row>
     <row r="117">
@@ -2529,10 +2529,10 @@
         <v>24.0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.34805194805194806</v>
+        <v>0.34675324675324676</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09492493004514502</v>
+        <v>0.10195803400650191</v>
       </c>
     </row>
     <row r="118">
@@ -2546,10 +2546,10 @@
         <v>24.0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.370995670995671</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1133936573011479</v>
+        <v>0.08264412054840618</v>
       </c>
     </row>
     <row r="119">
@@ -2563,10 +2563,10 @@
         <v>24.0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3471861471861472</v>
+        <v>0.3008658008658009</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08342121013920646</v>
+        <v>0.08100110938347008</v>
       </c>
     </row>
     <row r="120">
@@ -2580,10 +2580,10 @@
         <v>24.0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.33354978354978354</v>
+        <v>0.31536796536796535</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04952092091395075</v>
+        <v>0.10070583942377447</v>
       </c>
     </row>
     <row r="121">
@@ -2597,10 +2597,10 @@
         <v>24.0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.33852813852813857</v>
+        <v>0.3196969696969697</v>
       </c>
       <c r="E121" t="n">
-        <v>0.08567467904926124</v>
+        <v>0.07757424638207185</v>
       </c>
     </row>
     <row r="122">
@@ -2614,10 +2614,10 @@
         <v>25.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.39935064935064934</v>
+        <v>0.38961038961038963</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1202300368029306</v>
+        <v>0.06620530878472994</v>
       </c>
     </row>
     <row r="123">
@@ -2631,10 +2631,10 @@
         <v>25.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.37987012987012986</v>
+        <v>0.31103896103896106</v>
       </c>
       <c r="E123" t="n">
-        <v>0.09406250037939724</v>
+        <v>0.07899065554713475</v>
       </c>
     </row>
     <row r="124">
@@ -2648,10 +2648,10 @@
         <v>25.0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.34783549783549783</v>
+        <v>0.2963203463203463</v>
       </c>
       <c r="E124" t="n">
-        <v>0.07686641276012503</v>
+        <v>0.08529865804184643</v>
       </c>
     </row>
     <row r="125">
@@ -2665,10 +2665,10 @@
         <v>25.0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.34285714285714286</v>
+        <v>0.30108225108225106</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0787870859259537</v>
+        <v>0.08518262533332172</v>
       </c>
     </row>
     <row r="126">
@@ -2682,10 +2682,10 @@
         <v>25.0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.33441558441558444</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="E126" t="n">
-        <v>0.09521212860405338</v>
+        <v>0.06799928994796374</v>
       </c>
     </row>
   </sheetData>
